--- a/results/I3_N5_M3_T30_C100_DepCentral_s2_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>592.396008593883</v>
+        <v>591.8371978589363</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.351999998092651</v>
+        <v>1.572999954223633</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.21600859374647</v>
+        <v>35.83719785893628</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8566469517835222</v>
+        <v>3.080706412496979</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8566469517835222</v>
+        <v>3.080706412496979</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>498.1600000001366</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.02</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -711,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -780,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -893,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>24.20065850696125</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.76204095274937</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>25.71676524108239</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.09681749444501</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,15 +1009,43 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>132.1099999999981</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>120.9750000000001</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1170,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>118.6749999999992</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>126.2850000000012</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
@@ -1142,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>135.7199999999978</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.2649999999997</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -1164,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>115.6149999999992</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1175,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.6849999999998</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -1186,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>116.8749999999999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>115.92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>36.21999999999753</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>39.59000000000006</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1230,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>32.85499999999954</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1241,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>40.98999999999972</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.05</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1263,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000045</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000048</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000039</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -1296,7 +1346,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -1307,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000047</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -1318,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>88.45499999999811</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
@@ -1329,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>83.9399999999994</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>77.3799999999992</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
@@ -1351,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>86.77500000000146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -1362,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>91.84999999999999</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
@@ -1373,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>111.2649999999997</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33">
@@ -1384,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>115.6149999999995</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -1395,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>116.6849999999998</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>116.8749999999999</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
@@ -1417,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>115.92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
@@ -1428,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>106.1700000000183</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
@@ -1439,7 +1489,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>112.4900000000193</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
@@ -1450,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>102.5700000000184</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -1461,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>110.05</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
@@ -1472,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>107.6750000000193</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
@@ -1483,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>132.1099999999981</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43">
@@ -1494,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>120.9750000000001</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44">
@@ -1505,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>118.6749999999992</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -1516,7 +1566,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>126.2850000000012</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46">
@@ -1527,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>135.7199999999978</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.26499999999966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1585,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>15.6149999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1596,7 +1646,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>16.68499999999982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1607,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.87499999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1618,7 +1668,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>15.91999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1629,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.170000000017865</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -1640,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.49000000001865</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -1651,7 +1701,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.570000000017956</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -1662,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.05</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -1673,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.67500000001877</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1684,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>32.10999999999811</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1695,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>20.97500000000004</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -1706,7 +1756,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.6749999999992</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1717,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>26.28500000000116</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -1728,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>35.71999999999774</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1885,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1896,7 +1946,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1907,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5.005</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1918,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1929,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>4.27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2053,7 +2103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2135,7 +2185,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2146,7 +2196,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2157,7 +2207,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2168,7 +2218,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2179,67 +2229,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
